--- a/数据.xlsx
+++ b/数据.xlsx
@@ -126,10 +126,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\$0\^\c\i\r\c\ 00\'\$"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,21 +172,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -465,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:G23"/>
@@ -477,9 +482,10 @@
     <col min="3" max="5" width="13.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -499,23 +505,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>16718</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10722</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>34716</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>28716</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>(B2-C2+D2-E2)/2</f>
         <v>5998</v>
       </c>
@@ -528,24 +534,24 @@
         <v>0.76980035891950105</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>16720</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10720</v>
-      </c>
-      <c r="D3" s="2">
-        <v>34717</v>
-      </c>
-      <c r="E3" s="2">
-        <v>28718</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F4" si="0">(B3-C3+D3-E3)/2</f>
+      <c r="B3" s="1">
+        <v>19123</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>37120</v>
+      </c>
+      <c r="E3" s="1">
+        <v>31121</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(B3-C3+D3-E3)/2</f>
         <v>5999.5</v>
       </c>
       <c r="G3">
@@ -556,58 +562,86 @@
         <f>SQRT(H2^2+G4^2)</f>
         <v>0.88715107903729518</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>2403</v>
+      </c>
+      <c r="K3">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>16718</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10722</v>
-      </c>
-      <c r="D4" s="2">
-        <v>34720</v>
-      </c>
-      <c r="E4" s="2">
-        <v>28718</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
+      <c r="B4" s="1">
+        <v>13602</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7606</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31604</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25602</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(B4-C4+D4-E4)/2</f>
         <v>5999</v>
       </c>
       <c r="G4">
         <f>G2/SQRT(2)</f>
         <v>0.44095855184409838</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>1432</v>
+      </c>
+      <c r="K4">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <f>AVERAGE(B2:B4)</f>
-        <v>16718.666666666668</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:F5" si="1">AVERAGE(C2:C4)</f>
-        <v>10721.333333333334</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>34717.666666666664</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>28717.333333333332</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <v>16481</v>
+      </c>
+      <c r="C5" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>10483.666666666666</v>
+      </c>
+      <c r="D5" s="1">
+        <f>AVERAGE(D2:D4)</f>
+        <v>34480</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:F5" si="0">AVERAGE(E2:E4)</f>
+        <v>28479.666666666668</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
         <v>5998.833333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <f>J3-J4</f>
+        <v>971</v>
+      </c>
+      <c r="K5">
+        <f>K3+K4</f>
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>971</v>
+      </c>
+      <c r="K6">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -626,112 +660,118 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>15031</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>10907</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>33028</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>28904</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <f>(B8-C8+D8-E8)/2</f>
         <v>4124</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>_xlfn.STDEV.P(F8:F10)</f>
         <v>0.23570226039551584</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
-        <v>15031</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10909</v>
-      </c>
-      <c r="D9" s="2">
-        <v>33029</v>
-      </c>
-      <c r="E9" s="2">
-        <v>28904</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="F9:F10" si="2">(B9-C9+D9-E9)/2</f>
+      <c r="B9" s="1">
+        <v>13559</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9437</v>
+      </c>
+      <c r="D9" s="1">
+        <v>31557</v>
+      </c>
+      <c r="E9" s="1">
+        <v>27432</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F10" si="1">(B9-C9+D9-E9)/2</f>
         <v>4123.5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>_xlfn.STDEV.S(F8:F10)</f>
         <v>0.28867513459481292</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
-        <v>15031</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10906</v>
-      </c>
-      <c r="D10" s="2">
-        <v>33027</v>
-      </c>
-      <c r="E10" s="2">
-        <v>28904</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
+      <c r="B10" s="1">
+        <v>8655</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4530</v>
+      </c>
+      <c r="D10" s="1">
+        <v>26651</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22528</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
         <v>4124</v>
       </c>
-      <c r="G10">
-        <f>G8/SQRT(2)</f>
+      <c r="H10">
+        <f>H8/SQRT(2)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H10">
-        <f>SQRT(H2^2+G10^2)</f>
+      <c r="I10">
+        <f>SQRT(H2^2+H10^2)</f>
         <v>0.78763593770876816</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f>AVERAGE(B8:B10)</f>
-        <v>15031</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11" si="3">AVERAGE(C8:C10)</f>
-        <v>10907.333333333334</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11" si="4">AVERAGE(D8:D10)</f>
-        <v>33028</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" ref="E11" si="5">AVERAGE(E8:E10)</f>
-        <v>28904</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11" si="6">AVERAGE(F8:F10)</f>
+        <v>12415</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11" si="2">AVERAGE(C8:C10)</f>
+        <v>8291.3333333333339</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11" si="3">AVERAGE(D8:D10)</f>
+        <v>30412</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11" si="4">AVERAGE(E8:E10)</f>
+        <v>26288</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11" si="5">AVERAGE(F8:F10)</f>
         <v>4123.833333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -751,23 +791,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
-        <v>9752</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4343</v>
-      </c>
-      <c r="D14" s="2">
-        <v>27752</v>
-      </c>
-      <c r="E14" s="2">
-        <v>22346</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="B14" s="1">
+        <v>8751</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3342</v>
+      </c>
+      <c r="D14" s="1">
+        <v>26751</v>
+      </c>
+      <c r="E14" s="1">
+        <v>21345</v>
+      </c>
+      <c r="F14" s="2">
         <f>(B14-C14+D14-E14)/2</f>
         <v>5407.5</v>
       </c>
@@ -775,24 +815,27 @@
         <f>_xlfn.STDEV.P(F14:F16)</f>
         <v>1.4142135623730951</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="L14" s="1">
+        <v>34716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
-        <v>9752</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4346</v>
-      </c>
-      <c r="D15" s="2">
-        <v>27748</v>
-      </c>
-      <c r="E15" s="2">
-        <v>22345</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="B15" s="1">
+        <v>10224</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4818</v>
+      </c>
+      <c r="D15" s="1">
+        <v>28220</v>
+      </c>
+      <c r="E15" s="1">
+        <v>22817</v>
+      </c>
+      <c r="F15" s="2">
         <f>(B15-C15+D15-E15)/2</f>
         <v>5404.5</v>
       </c>
@@ -800,62 +843,72 @@
         <f>_xlfn.STDEV.S(F14:F16)</f>
         <v>1.7320508075688772</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="L15" s="1">
+        <v>37120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>9753</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>4345</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>27750</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>22343</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f>(B16-C16+D16-E16)/2</f>
         <v>5407.5</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16" si="7">G14/SQRT(2)</f>
+        <f t="shared" ref="G16" si="6">G14/SQRT(2)</f>
         <v>1</v>
       </c>
       <c r="H16">
         <f>SQRT(H2^2+G16^2)</f>
         <v>1.2619796324000607</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="L16" s="1">
+        <v>31604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f>AVERAGE(B14:B16)</f>
-        <v>9752.3333333333339</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17" si="8">AVERAGE(C14:C16)</f>
-        <v>4344.666666666667</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17" si="9">AVERAGE(D14:D16)</f>
-        <v>27750</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17" si="10">AVERAGE(E14:E16)</f>
-        <v>22344.666666666668</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" ref="F17" si="11">AVERAGE(F14:F16)</f>
+        <v>9576</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17" si="7">AVERAGE(C14:C16)</f>
+        <v>4168.333333333333</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17" si="8">AVERAGE(D14:D16)</f>
+        <v>27573.666666666668</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17" si="9">AVERAGE(E14:E16)</f>
+        <v>22168.333333333332</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ref="F17" si="10">AVERAGE(F14:F16)</f>
         <v>5406.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="L17" s="1">
+        <f>AVERAGE(L14:L16)</f>
+        <v>34480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -878,100 +931,106 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>9810</v>
+        <v>9725</v>
       </c>
       <c r="C20" s="2">
-        <v>4342</v>
+        <v>4407</v>
       </c>
       <c r="D20" s="2">
-        <v>27811</v>
+        <v>27726</v>
       </c>
       <c r="E20" s="2">
-        <v>22342</v>
-      </c>
-      <c r="F20" s="3">
-        <f>(B20-C20+D20-E20)/2-20</f>
-        <v>5448.5</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.6853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>22407</v>
+      </c>
+      <c r="F20" s="2">
+        <f>(B20-C20+D20-E20)/2</f>
+        <v>5318.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.6709000000000001</v>
+      </c>
+      <c r="I20" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>9730</v>
+        <v>9805</v>
       </c>
       <c r="C21" s="2">
-        <v>4341</v>
+        <v>4246</v>
       </c>
       <c r="D21" s="2">
-        <v>27726</v>
+        <v>27801</v>
       </c>
       <c r="E21" s="2">
-        <v>22344</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" ref="F21:F22" si="12">(B21-C21+D21-E21)/2-20</f>
-        <v>5365.5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1.6786000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>22242</v>
+      </c>
+      <c r="F21" s="2">
+        <f>(B21-C21+D21-E21)/2-40</f>
+        <v>5519</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.6898</v>
+      </c>
+      <c r="I21" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>9930</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4344</v>
-      </c>
-      <c r="D22" s="2">
-        <v>27921</v>
-      </c>
-      <c r="E22" s="2">
-        <v>22345</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="12"/>
-        <v>5561</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1.6966000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>9815</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4144</v>
+      </c>
+      <c r="D22" s="1">
+        <v>27817</v>
+      </c>
+      <c r="E22" s="1">
+        <v>22145</v>
+      </c>
+      <c r="F22" s="2">
+        <f>(B22-C22+D22-E22)/2-20-20-1</f>
+        <v>5630.5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.7009000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>9850</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4345</v>
-      </c>
-      <c r="D23" s="2">
-        <v>27850</v>
-      </c>
-      <c r="E23" s="2">
-        <v>22343</v>
-      </c>
-      <c r="F23" s="3">
-        <f>(B23-C23+D23-E23)/2</f>
-        <v>5506</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1.6879999999999999</v>
+      <c r="B23" s="1">
+        <v>9814</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4142</v>
+      </c>
+      <c r="D23" s="1">
+        <v>27816</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22141</v>
+      </c>
+      <c r="F23" s="2">
+        <f>(B23-C23+D23-E23)/2-42</f>
+        <v>5631.5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.7107000000000001</v>
       </c>
     </row>
   </sheetData>
